--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4483425.049461428</v>
+        <v>4481544.869691101</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>580807.4425593417</v>
+        <v>776825.5106054909</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6976137.917544412</v>
+        <v>6976137.917544411</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>294.4212800392065</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>212.1370054753146</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -750,7 +750,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>15.24537842269848</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>9.275596830496854</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>187.0455934303025</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.1677877827983</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>106.0559553100029</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>401.3550844723776</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>6.283679164005137</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.7112368822933</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,13 +1291,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>101.7806877295494</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>43.31785343913981</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634819</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,16 +1424,16 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>115.5269768002181</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701355</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750027</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2008,13 +2008,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>70.41761368552075</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>155.4529171376661</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T19" t="n">
-        <v>210.5069097326778</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U19" t="n">
-        <v>275.1967010728658</v>
+        <v>275.1967010728659</v>
       </c>
       <c r="V19" t="n">
-        <v>241.0969919981165</v>
+        <v>241.0969919981166</v>
       </c>
       <c r="W19" t="n">
-        <v>275.4823470108795</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X19" t="n">
-        <v>214.6690040633257</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y19" t="n">
-        <v>101.8448552057473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274074</v>
@@ -2135,7 +2135,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>168.7913288562258</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>156.2061697729164</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>137.5748216925009</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>135.3933113208577</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>134.3803966972198</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>99.37859413856056</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.92370107808134</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T22" t="n">
-        <v>87.83540660347388</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.1967010728659</v>
       </c>
       <c r="V22" t="n">
         <v>241.0969919981166</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X22" t="n">
-        <v>214.6690040633257</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>70.41761368552075</v>
       </c>
     </row>
     <row r="23">
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>70.41761368552129</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>214.6690040633257</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>70.41761368552106</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>70.41761368552096</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>70.41761368552174</v>
       </c>
       <c r="S28" t="n">
         <v>186.8801586578918</v>
@@ -2767,13 +2767,13 @@
         <v>210.5069097326778</v>
       </c>
       <c r="U28" t="n">
-        <v>275.1967010728659</v>
+        <v>275.1967010728658</v>
       </c>
       <c r="V28" t="n">
-        <v>241.0969919981166</v>
+        <v>241.0969919981165</v>
       </c>
       <c r="W28" t="n">
-        <v>275.4823470108796</v>
+        <v>275.4823470108795</v>
       </c>
       <c r="X28" t="n">
         <v>214.6690040633257</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>70.41761368552106</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>70.41761368552179</v>
       </c>
       <c r="S31" t="n">
         <v>186.8801586578918</v>
@@ -3004,13 +3004,13 @@
         <v>210.5069097326778</v>
       </c>
       <c r="U31" t="n">
-        <v>275.1967010728658</v>
+        <v>275.1967010728659</v>
       </c>
       <c r="V31" t="n">
         <v>241.0969919981165</v>
       </c>
       <c r="W31" t="n">
-        <v>275.4823470108795</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X31" t="n">
         <v>214.6690040633257</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051966</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898712</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857165</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692846</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329054</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373688</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789542</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689366</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
         <v>184.0057531941873</v>
@@ -3487,7 +3487,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
         <v>150.4527632224541</v>
@@ -3518,10 +3518,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113147</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>880.7122078777249</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C2" t="n">
-        <v>511.7496909373132</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D2" t="n">
-        <v>511.7496909373132</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>511.7496909373132</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>504.8041901881098</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4325,13 +4325,13 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224079</v>
@@ -4346,10 +4346,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834949</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.546461473041</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.546461473041</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1640.777806202927</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X2" t="n">
-        <v>1267.312047941847</v>
+        <v>1426.498002692507</v>
       </c>
       <c r="Y2" t="n">
-        <v>1267.312047941847</v>
+        <v>1036.358670716696</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4404,46 +4404,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>99.59950625323012</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59950625323012</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
         <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4495,43 +4495,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>336.276983312403</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810047</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1154.32125595057</v>
+        <v>1526.106027515566</v>
       </c>
       <c r="C5" t="n">
-        <v>1154.32125595057</v>
+        <v>1526.106027515566</v>
       </c>
       <c r="D5" t="n">
-        <v>796.0555573438196</v>
+        <v>1167.840328908816</v>
       </c>
       <c r="E5" t="n">
-        <v>410.2673047455754</v>
+        <v>782.0520763105712</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>371.0661715209637</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>357.1427674595546</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628377</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>1893.689751284806</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>1540.921096014692</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X5" t="n">
-        <v>1540.921096014692</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y5" t="n">
-        <v>1540.921096014692</v>
+        <v>1526.106027515566</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4650,25 +4650,25 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1851.37379586972</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2291.509718890064</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>597.8010803716834</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>308.6274700262513</v>
+        <v>591.5848374741946</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>591.5848374741946</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>591.5848374741946</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>591.5848374741946</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>370.7922583306645</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2310.5492509541</v>
+        <v>1194.175505447096</v>
       </c>
       <c r="C8" t="n">
-        <v>1941.586734013689</v>
+        <v>825.212988506684</v>
       </c>
       <c r="D8" t="n">
-        <v>1583.321035406938</v>
+        <v>466.9472898999335</v>
       </c>
       <c r="E8" t="n">
-        <v>1197.532782808694</v>
+        <v>81.1590373016893</v>
       </c>
       <c r="F8" t="n">
-        <v>786.5468780190865</v>
+        <v>74.21353655248582</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>60.29013249107673</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>60.29013249107673</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018222</v>
+        <v>1970.914677487029</v>
       </c>
       <c r="Y8" t="n">
-        <v>2697.149091018222</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>325.6879402326647</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>156.7517573047578</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>156.7517573047578</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W10" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X10" t="n">
-        <v>456.3840257941342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>507.3364050629044</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5027,34 +5027,34 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155894</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805475</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822467</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514097</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899128</v>
@@ -5063,7 +5063,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231265</v>
@@ -5072,19 +5072,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028587</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1073603047985</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L12" t="n">
-        <v>1122.004430061687</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M12" t="n">
-        <v>1890.372576454149</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>2623.573505376138</v>
+        <v>2107.32270539078</v>
       </c>
       <c r="O12" t="n">
-        <v>2623.573505376138</v>
+        <v>2356.076119474742</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028593</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011508</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952639</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583033</v>
+        <v>441.9005583181195</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028593</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028593</v>
+        <v>213.9110074201021</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5270,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5291,10 +5291,10 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5303,13 +5303,13 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
@@ -5355,22 +5355,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L15" t="n">
-        <v>1288.32563221405</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M15" t="n">
-        <v>1819.161927111988</v>
+        <v>1089.288466700114</v>
       </c>
       <c r="N15" t="n">
-        <v>2623.573505376138</v>
+        <v>1433.809122337731</v>
       </c>
       <c r="O15" t="n">
-        <v>2623.573505376138</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P15" t="n">
         <v>2623.573505376138</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028613</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028604</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028604</v>
       </c>
       <c r="E16" t="n">
         <v>97.21709146028587</v>
@@ -5437,13 +5437,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,7 +5452,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
         <v>1498.916270557902</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387593</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011514</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952644</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583036</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028613</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028613</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,7 +5525,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5534,10 +5534,10 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5589,22 +5589,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K18" t="n">
-        <v>508.1073603047985</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L18" t="n">
-        <v>1122.004430061687</v>
+        <v>836.471721275012</v>
       </c>
       <c r="M18" t="n">
-        <v>1890.372576454149</v>
+        <v>1156.807040804714</v>
       </c>
       <c r="N18" t="n">
-        <v>2623.573505376138</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O18" t="n">
         <v>2623.573505376138</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>254.2402400841909</v>
+        <v>168.3459941729332</v>
       </c>
       <c r="C19" t="n">
-        <v>254.2402400841909</v>
+        <v>168.3459941729332</v>
       </c>
       <c r="D19" t="n">
-        <v>254.2402400841909</v>
+        <v>168.3459941729332</v>
       </c>
       <c r="E19" t="n">
-        <v>254.2402400841909</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>254.2402400841909</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>120.5300287366498</v>
+        <v>120.53002873665</v>
       </c>
       <c r="K19" t="n">
-        <v>281.6456777937157</v>
+        <v>281.6456777937158</v>
       </c>
       <c r="L19" t="n">
         <v>540.2879676172993</v>
       </c>
       <c r="M19" t="n">
-        <v>822.7849551969365</v>
+        <v>822.7849551969364</v>
       </c>
       <c r="N19" t="n">
         <v>1104.259309036938</v>
       </c>
       <c r="O19" t="n">
-        <v>1349.06453185479</v>
+        <v>1349.064531854789</v>
       </c>
       <c r="P19" t="n">
         <v>1536.594541272927</v>
@@ -5698,25 +5698,25 @@
         <v>1586.358229057537</v>
       </c>
       <c r="S19" t="n">
-        <v>1586.358229057537</v>
+        <v>1397.590392029363</v>
       </c>
       <c r="T19" t="n">
-        <v>1373.724986903317</v>
+        <v>1184.957149875143</v>
       </c>
       <c r="U19" t="n">
-        <v>1095.74852117315</v>
+        <v>906.9806841449756</v>
       </c>
       <c r="V19" t="n">
-        <v>852.2162060235369</v>
+        <v>663.4483689953629</v>
       </c>
       <c r="W19" t="n">
-        <v>573.9512090428505</v>
+        <v>385.1833720146764</v>
       </c>
       <c r="X19" t="n">
-        <v>357.1138312011074</v>
+        <v>168.3459941729332</v>
       </c>
       <c r="Y19" t="n">
-        <v>254.2402400841909</v>
+        <v>168.3459941729332</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5729,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5771,25 +5771,25 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M21" t="n">
-        <v>417.5524109899876</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N21" t="n">
-        <v>1221.963989254138</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>1891.427750556798</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>766.8466809775136</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>609.0626711058809</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>470.0982047498193</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>333.3372842237004</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>197.5995097820642</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>197.5995097820642</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>197.5995097820642</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>120.53002873665</v>
@@ -5914,16 +5914,16 @@
         <v>281.6456777937158</v>
       </c>
       <c r="L22" t="n">
-        <v>540.2879676172995</v>
+        <v>540.2879676172993</v>
       </c>
       <c r="M22" t="n">
-        <v>822.7849551969368</v>
+        <v>822.7849551969364</v>
       </c>
       <c r="N22" t="n">
-        <v>1104.259309036939</v>
+        <v>1104.259309036938</v>
       </c>
       <c r="O22" t="n">
-        <v>1349.06453185479</v>
+        <v>1349.064531854789</v>
       </c>
       <c r="P22" t="n">
         <v>1536.594541272927</v>
@@ -5932,28 +5932,28 @@
         <v>1586.358229057537</v>
       </c>
       <c r="R22" t="n">
-        <v>1486.435298675637</v>
+        <v>1586.358229057537</v>
       </c>
       <c r="S22" t="n">
-        <v>1486.435298675637</v>
+        <v>1397.590392029363</v>
       </c>
       <c r="T22" t="n">
-        <v>1397.712665742835</v>
+        <v>1184.957149875143</v>
       </c>
       <c r="U22" t="n">
-        <v>1397.712665742835</v>
+        <v>906.9806841449755</v>
       </c>
       <c r="V22" t="n">
-        <v>1154.180350593222</v>
+        <v>663.4483689953627</v>
       </c>
       <c r="W22" t="n">
-        <v>1154.180350593222</v>
+        <v>385.1833720146763</v>
       </c>
       <c r="X22" t="n">
-        <v>937.3429727514791</v>
+        <v>168.3459941729331</v>
       </c>
       <c r="Y22" t="n">
-        <v>937.3429727514791</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6014,22 +6014,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6069,22 +6069,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>334.288126757867</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N24" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>168.3459941729336</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>168.3459941729336</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>168.3459941729336</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>120.53002873665</v>
+        <v>120.5300287366501</v>
       </c>
       <c r="K25" t="n">
         <v>281.6456777937158</v>
@@ -6154,7 +6154,7 @@
         <v>540.2879676172994</v>
       </c>
       <c r="M25" t="n">
-        <v>822.7849551969366</v>
+        <v>822.7849551969364</v>
       </c>
       <c r="N25" t="n">
         <v>1104.259309036938</v>
@@ -6184,13 +6184,13 @@
         <v>663.4483689953631</v>
       </c>
       <c r="W25" t="n">
-        <v>385.1833720146767</v>
+        <v>385.1833720146766</v>
       </c>
       <c r="X25" t="n">
-        <v>168.3459941729336</v>
+        <v>168.3459941729334</v>
       </c>
       <c r="Y25" t="n">
-        <v>168.3459941729336</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,34 +6209,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6248,28 +6248,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>334.2881267578673</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.3459941729333</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>168.3459941729333</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>168.3459941729333</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>168.3459941729333</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>120.5300287366501</v>
@@ -6391,10 +6391,10 @@
         <v>540.2879676172995</v>
       </c>
       <c r="M28" t="n">
-        <v>822.7849551969366</v>
+        <v>822.7849551969367</v>
       </c>
       <c r="N28" t="n">
-        <v>1104.259309036938</v>
+        <v>1104.259309036939</v>
       </c>
       <c r="O28" t="n">
         <v>1349.06453185479</v>
@@ -6403,31 +6403,31 @@
         <v>1536.594541272927</v>
       </c>
       <c r="Q28" t="n">
-        <v>1586.358229057537</v>
+        <v>1586.358229057538</v>
       </c>
       <c r="R28" t="n">
-        <v>1586.358229057537</v>
+        <v>1515.229326344889</v>
       </c>
       <c r="S28" t="n">
-        <v>1397.590392029363</v>
+        <v>1326.461489316716</v>
       </c>
       <c r="T28" t="n">
-        <v>1184.957149875143</v>
+        <v>1113.828247162496</v>
       </c>
       <c r="U28" t="n">
-        <v>906.9806841449756</v>
+        <v>835.8517814323282</v>
       </c>
       <c r="V28" t="n">
-        <v>663.4483689953629</v>
+        <v>592.3194662827154</v>
       </c>
       <c r="W28" t="n">
-        <v>385.1833720146765</v>
+        <v>314.054469302029</v>
       </c>
       <c r="X28" t="n">
-        <v>168.3459941729333</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>168.3459941729333</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K29" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028583</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028583</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>334.2881267578678</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N30" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>120.53002873665</v>
+        <v>120.5300287366501</v>
       </c>
       <c r="K31" t="n">
-        <v>281.6456777937158</v>
+        <v>281.6456777937159</v>
       </c>
       <c r="L31" t="n">
-        <v>540.2879676172993</v>
+        <v>540.2879676172995</v>
       </c>
       <c r="M31" t="n">
-        <v>822.7849551969364</v>
+        <v>822.7849551969368</v>
       </c>
       <c r="N31" t="n">
-        <v>1104.259309036938</v>
+        <v>1104.259309036939</v>
       </c>
       <c r="O31" t="n">
-        <v>1349.064531854789</v>
+        <v>1349.06453185479</v>
       </c>
       <c r="P31" t="n">
-        <v>1536.594541272926</v>
+        <v>1536.594541272927</v>
       </c>
       <c r="Q31" t="n">
         <v>1586.358229057537</v>
       </c>
       <c r="R31" t="n">
-        <v>1586.358229057537</v>
+        <v>1515.229326344889</v>
       </c>
       <c r="S31" t="n">
-        <v>1397.590392029363</v>
+        <v>1326.461489316716</v>
       </c>
       <c r="T31" t="n">
-        <v>1184.957149875143</v>
+        <v>1113.828247162496</v>
       </c>
       <c r="U31" t="n">
-        <v>906.9806841449756</v>
+        <v>835.8517814323282</v>
       </c>
       <c r="V31" t="n">
-        <v>663.4483689953629</v>
+        <v>592.3194662827154</v>
       </c>
       <c r="W31" t="n">
-        <v>385.1833720146765</v>
+        <v>314.054469302029</v>
       </c>
       <c r="X31" t="n">
-        <v>168.3459941729334</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>168.3459941729334</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,25 +6683,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6713,16 +6713,16 @@
         <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6734,16 +6734,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6765,37 +6765,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028581</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028581</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>334.2881267578674</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6838,7 +6838,7 @@
         <v>559.3441472229667</v>
       </c>
       <c r="D34" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E34" t="n">
         <v>398.95459630832</v>
@@ -6853,22 +6853,22 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649688</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
         <v>1688.186490350129</v>
@@ -6880,13 +6880,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025262</v>
@@ -6926,40 +6926,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823808</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514103</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
         <v>358.2718071316295</v>
@@ -7011,25 +7011,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028587</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>865.5852378527472</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N36" t="n">
-        <v>1669.996816116898</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>2339.460577419557</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
         <v>2623.573505376138</v>
@@ -7050,7 +7050,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
         <v>1571.258395043133</v>
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
         <v>559.344147222967</v>
@@ -7081,31 +7081,31 @@
         <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103125</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O37" t="n">
         <v>1688.186490350129</v>
@@ -7120,7 +7120,7 @@
         <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.3213845506</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610188</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003438</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405193</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155859</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080544</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231261</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141865</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465298</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121728</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851613</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590533</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614722</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7239,37 +7239,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028581</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028581</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>334.2881267578674</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525402</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649693</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7491,19 +7491,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>865.5852378527472</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N42" t="n">
-        <v>1669.996816116898</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>2339.460577419557</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
         <v>2623.573505376138</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
         <v>221.5295092103129</v>
@@ -7567,7 +7567,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254957</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7673,22 +7673,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7728,25 +7728,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>323.6581146605672</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7828,7 +7828,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7840,16 +7840,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8781,13 +8781,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9018,10 +9018,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9255,7 +9255,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -9480,10 +9480,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9492,13 +9492,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>381.5997261417981</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>381.5997261417977</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10677,10 +10677,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>381.5997261417977</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11151,10 +11151,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>33.38685156731806</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,10 +23464,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>82.39383318338569</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23665,10 +23665,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633777</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>82.39383318338662</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>168.7913288562258</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C19" t="n">
         <v>156.2061697729164</v>
       </c>
       <c r="D19" t="n">
-        <v>137.5748216925009</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E19" t="n">
-        <v>135.3933113208577</v>
+        <v>64.97569763533703</v>
       </c>
       <c r="F19" t="n">
-        <v>134.3803966972198</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>155.4529171376662</v>
       </c>
       <c r="H19" t="n">
-        <v>137.8731770418246</v>
+        <v>137.8731770418247</v>
       </c>
       <c r="I19" t="n">
-        <v>99.3785941385605</v>
+        <v>99.37859413856059</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>98.92370107808131</v>
+        <v>98.92370107808139</v>
       </c>
       <c r="S19" t="n">
-        <v>186.8801586578918</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>105.699146820636</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G22" t="n">
-        <v>155.4529171376661</v>
+        <v>155.4529171376662</v>
       </c>
       <c r="H22" t="n">
         <v>137.8731770418247</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>99.37859413856057</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>98.92370107808138</v>
       </c>
       <c r="S22" t="n">
-        <v>186.8801586578918</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>122.6715031292039</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.1967010728659</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>275.4823470108796</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>207.5440020263833</v>
+        <v>137.1263883408627</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>168.7913288562258</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C25" t="n">
         <v>156.2061697729164</v>
@@ -24370,19 +24370,19 @@
         <v>137.5748216925009</v>
       </c>
       <c r="E25" t="n">
-        <v>64.97569763533643</v>
+        <v>135.3933113208577</v>
       </c>
       <c r="F25" t="n">
         <v>134.3803966972198</v>
       </c>
       <c r="G25" t="n">
-        <v>155.4529171376661</v>
+        <v>155.4529171376662</v>
       </c>
       <c r="H25" t="n">
         <v>137.8731770418247</v>
       </c>
       <c r="I25" t="n">
-        <v>99.37859413856053</v>
+        <v>99.37859413856057</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>98.92370107808134</v>
+        <v>98.92370107808138</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>207.5440020263833</v>
+        <v>137.1263883408623</v>
       </c>
     </row>
     <row r="26">
@@ -24610,16 +24610,16 @@
         <v>135.3933113208577</v>
       </c>
       <c r="F28" t="n">
-        <v>63.96278301169884</v>
+        <v>134.3803966972198</v>
       </c>
       <c r="G28" t="n">
         <v>155.4529171376661</v>
       </c>
       <c r="H28" t="n">
-        <v>137.8731770418247</v>
+        <v>137.8731770418246</v>
       </c>
       <c r="I28" t="n">
-        <v>99.37859413856054</v>
+        <v>99.37859413856049</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>98.92370107808135</v>
+        <v>28.50608739255955</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>98.37371517070476</v>
+        <v>168.7913288562258</v>
       </c>
       <c r="C31" t="n">
         <v>156.2061697729164</v>
@@ -24856,7 +24856,7 @@
         <v>137.8731770418246</v>
       </c>
       <c r="I31" t="n">
-        <v>99.37859413856053</v>
+        <v>99.3785941385605</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>98.92370107808134</v>
+        <v>28.50608739255952</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>586543.5896065634</v>
+        <v>586543.5896065632</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>591281.512888832</v>
+        <v>591281.5128888319</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>591281.512888832</v>
+        <v>591281.5128888319</v>
       </c>
     </row>
     <row r="11">
@@ -26314,16 +26314,16 @@
         <v>821041.7698642829</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642828</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="E2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754182</v>
       </c>
       <c r="F2" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754179</v>
       </c>
       <c r="G2" t="n">
         <v>788375.3505184435</v>
@@ -26332,19 +26332,19 @@
         <v>788375.3505184436</v>
       </c>
       <c r="I2" t="n">
-        <v>788375.3505184434</v>
+        <v>788375.3505184433</v>
       </c>
       <c r="J2" t="n">
-        <v>788375.3505184433</v>
+        <v>788375.3505184436</v>
       </c>
       <c r="K2" t="n">
-        <v>788375.3505184434</v>
+        <v>788375.3505184435</v>
       </c>
       <c r="L2" t="n">
-        <v>821041.7698642845</v>
+        <v>821041.7698642844</v>
       </c>
       <c r="M2" t="n">
-        <v>821041.7698642848</v>
+        <v>821041.7698642844</v>
       </c>
       <c r="N2" t="n">
         <v>821041.7698642844</v>
@@ -26353,7 +26353,7 @@
         <v>821041.7698642844</v>
       </c>
       <c r="P2" t="n">
-        <v>821041.7698642845</v>
+        <v>821041.7698642844</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8832.52106056921</v>
+        <v>8832.521060569177</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>54505.51210371256</v>
+        <v>54505.51210371252</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338374</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905757724</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758402</v>
+        <v>787.7936905758302</v>
       </c>
       <c r="G4" t="n">
-        <v>4420.718193415192</v>
+        <v>4420.718193415148</v>
       </c>
       <c r="H4" t="n">
-        <v>4420.718193415192</v>
+        <v>4420.718193415147</v>
       </c>
       <c r="I4" t="n">
-        <v>4420.718193415189</v>
+        <v>4420.718193415177</v>
       </c>
       <c r="J4" t="n">
-        <v>4420.718193415189</v>
+        <v>4420.718193415176</v>
       </c>
       <c r="K4" t="n">
-        <v>4420.718193415253</v>
+        <v>4420.718193415165</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189645</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189637</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189649</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="O4" t="n">
+        <v>23206.58093189634</v>
+      </c>
+      <c r="P4" t="n">
         <v>23206.58093189635</v>
-      </c>
-      <c r="P4" t="n">
-        <v>23206.58093189634</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26491,25 +26491,25 @@
         <v>92915.50246501787</v>
       </c>
       <c r="J5" t="n">
-        <v>92915.50246501787</v>
+        <v>92915.50246501788</v>
       </c>
       <c r="K5" t="n">
-        <v>92915.50246501784</v>
+        <v>92915.50246501788</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002535</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002535</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9155.673405709866</v>
+        <v>9155.673405709967</v>
       </c>
       <c r="C6" t="n">
-        <v>599123.5526202547</v>
+        <v>599123.5526202543</v>
       </c>
       <c r="D6" t="n">
         <v>599123.5526202547</v>
       </c>
       <c r="E6" t="n">
-        <v>164122.963359229</v>
+        <v>164025.5042332575</v>
       </c>
       <c r="F6" t="n">
-        <v>689282.9998361255</v>
+        <v>689185.5407101533</v>
       </c>
       <c r="G6" t="n">
-        <v>682206.6087994413</v>
+        <v>682124.9427510767</v>
       </c>
       <c r="H6" t="n">
-        <v>691039.1298600106</v>
+        <v>690957.463811646</v>
       </c>
       <c r="I6" t="n">
-        <v>691039.1298600103</v>
+        <v>690957.4638116456</v>
       </c>
       <c r="J6" t="n">
-        <v>514615.9106674172</v>
+        <v>514534.2446190529</v>
       </c>
       <c r="K6" t="n">
-        <v>691039.1298600106</v>
+        <v>690957.4638116459</v>
       </c>
       <c r="L6" t="n">
-        <v>645614.5710086502</v>
+        <v>645614.5710086501</v>
       </c>
       <c r="M6" t="n">
-        <v>565319.0678785256</v>
+        <v>565319.0678785255</v>
       </c>
       <c r="N6" t="n">
-        <v>700120.0831123628</v>
+        <v>700120.0831123627</v>
       </c>
       <c r="O6" t="n">
-        <v>700120.0831123625</v>
+        <v>700120.0831123627</v>
       </c>
       <c r="P6" t="n">
-        <v>700120.0831123628</v>
+        <v>700120.0831123627</v>
       </c>
     </row>
   </sheetData>
@@ -26698,16 +26698,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571148</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="H2" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="I2" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="J2" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571149</v>
       </c>
       <c r="K2" t="n">
         <v>11.04065132571148</v>
@@ -26716,16 +26716,16 @@
         <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26741,13 +26741,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
@@ -26759,25 +26759,25 @@
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054540999</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571151</v>
+        <v>11.04065132571147</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990184</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>11.04065132571151</v>
+        <v>11.04065132571147</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,10 +27388,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>119.3628899815885</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>157.5940952031544</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27537,10 +27537,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>152.0644238363524</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>277.0062774114809</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>219.8304523114089</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>23.75498498155889</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27825,13 +27825,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>96.01048066168096</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>180.2259189319748</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>12.42908554841739</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>145.6476370808561</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481168</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28011,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>44.6532749170198</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491429</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>243.2051448974512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28105,10 +28105,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-3.670803931498391e-15</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-7.642805928361637e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28144,16 +28144,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-7.642805928361637e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-7.642805928361637e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-7.642805928361637e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-7.642805928361637e-14</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28375,22 +28375,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-7.642805928361637e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-7.642805928361637e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>-3.528235967104183e-13</v>
+        <v>-7.642805928361637e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-7.642805928361637e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-7.642805928361637e-14</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.04065132571148</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="C19" t="n">
-        <v>11.04065132571148</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="D19" t="n">
-        <v>11.04065132571148</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="E19" t="n">
-        <v>11.04065132571148</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="F19" t="n">
-        <v>11.04065132571148</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="G19" t="n">
-        <v>11.04065132571148</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="H19" t="n">
-        <v>11.04065132571148</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="I19" t="n">
-        <v>11.04065132571148</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="J19" t="n">
-        <v>11.04065132571148</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="K19" t="n">
-        <v>11.04065132571148</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="L19" t="n">
-        <v>11.04065132571148</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="M19" t="n">
-        <v>11.04065132571148</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="N19" t="n">
-        <v>11.04065132571148</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="O19" t="n">
-        <v>11.04065132571148</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="P19" t="n">
-        <v>11.04065132571148</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="Q19" t="n">
-        <v>11.04065132571148</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="R19" t="n">
-        <v>11.04065132571148</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="S19" t="n">
-        <v>11.04065132571148</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="T19" t="n">
-        <v>11.04065132571148</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="U19" t="n">
-        <v>11.04065132571148</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="V19" t="n">
-        <v>11.04065132571148</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="W19" t="n">
-        <v>11.04065132571148</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="X19" t="n">
-        <v>11.04065132571148</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.04065132571148</v>
+        <v>11.04065132571139</v>
       </c>
     </row>
     <row r="20">
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="C22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="D22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="E22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="F22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="G22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="H22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="I22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="J22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="K22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="L22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="M22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="N22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="O22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="P22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Q22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="R22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="S22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="T22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="U22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="V22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="W22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="X22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571141</v>
       </c>
     </row>
     <row r="23">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="C25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="D25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="E25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="F25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="G25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="H25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="I25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="J25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="K25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="L25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="M25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="N25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="O25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="P25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Q25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="R25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="S25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="T25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="U25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="V25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="W25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="X25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571141</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571149</v>
       </c>
       <c r="C28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571149</v>
       </c>
       <c r="D28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571149</v>
       </c>
       <c r="E28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571149</v>
       </c>
       <c r="F28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571149</v>
       </c>
       <c r="G28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571149</v>
       </c>
       <c r="H28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571149</v>
       </c>
       <c r="I28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571149</v>
       </c>
       <c r="J28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571149</v>
       </c>
       <c r="K28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571149</v>
       </c>
       <c r="L28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571149</v>
       </c>
       <c r="M28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571149</v>
       </c>
       <c r="N28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571149</v>
       </c>
       <c r="O28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571149</v>
       </c>
       <c r="P28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571149</v>
       </c>
       <c r="Q28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571149</v>
       </c>
       <c r="R28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571149</v>
       </c>
       <c r="S28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571149</v>
       </c>
       <c r="T28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571149</v>
       </c>
       <c r="U28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571149</v>
       </c>
       <c r="V28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571149</v>
       </c>
       <c r="W28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571149</v>
       </c>
       <c r="X28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571149</v>
       </c>
       <c r="Y28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571149</v>
       </c>
     </row>
     <row r="29">
@@ -29530,7 +29530,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.222133505507372e-12</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>2.955857780762017e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31130,7 +31130,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31145,7 +31145,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>111.7343803072874</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
@@ -31370,13 +31370,13 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942315</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>195.5988322391985</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
@@ -31385,7 +31385,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034982</v>
@@ -31519,22 +31519,22 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
         <v>255.8615389119866</v>
@@ -31543,19 +31543,19 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.390715366338</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473555</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141112</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396479</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>111.7343803072874</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078613</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644444</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813579</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302241</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175846</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383802</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31713,7 +31713,7 @@
         <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315611</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31753,7 +31753,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,31 +31762,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31835,31 +31835,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>392.6063366508803</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>316.1607543276358</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,7 +31926,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31938,19 +31938,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,7 +31990,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,31 +31999,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32072,28 +32072,28 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>212.6272478467031</v>
+        <v>319.6115048322619</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,7 +32163,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32175,19 +32175,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,22 +32312,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>392.6063366508803</v>
+        <v>457.3556036678253</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -32470,7 +32470,7 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32549,28 +32549,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>212.6272478467031</v>
       </c>
       <c r="N21" t="n">
         <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>256.9624847376522</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
@@ -32710,7 +32710,7 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L23" t="n">
         <v>526.796267130444</v>
@@ -32786,28 +32786,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>100.1578341526431</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,16 +32962,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,37 +33023,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443615</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041486</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565516</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927183</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.040313094699</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647494</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104645</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127061</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813459</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855524</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458547</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710955</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361486</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33336,43 +33336,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298627</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263749</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892242</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0816769579135181</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.536285481346</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855524</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458548</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,43 +33573,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961226</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.536285481346</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855524</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>102.4943942860912</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -33761,10 +33761,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,43 +33810,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.536285481346</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855524</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458548</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,43 +34047,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,25 +34208,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>102.4943942860912</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -34235,10 +34235,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,16 +34384,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,37 +34445,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35018,13 +35018,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>543.5994944994187</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770693</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713956</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873151</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,25 +35413,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>740.6069989111005</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>182.1863469133056</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,25 +35650,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>536.1982776746847</v>
+        <v>643.1825346602435</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556547</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,19 +35963,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>740.6069989111005</v>
+        <v>805.3562659280456</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.54842149127701</v>
+        <v>23.54842149127693</v>
       </c>
       <c r="K19" t="n">
-        <v>162.7430798556221</v>
+        <v>162.743079855622</v>
       </c>
       <c r="L19" t="n">
-        <v>261.25483820564</v>
+        <v>261.2548382056399</v>
       </c>
       <c r="M19" t="n">
-        <v>285.350492504684</v>
+        <v>285.3504925046839</v>
       </c>
       <c r="N19" t="n">
-        <v>284.3175291313152</v>
+        <v>284.317529131315</v>
       </c>
       <c r="O19" t="n">
-        <v>247.2780028463144</v>
+        <v>247.2780028463143</v>
       </c>
       <c r="P19" t="n">
-        <v>189.4242519375123</v>
+        <v>189.4242519375122</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.26635129758624</v>
+        <v>50.26635129758616</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>536.1982776746847</v>
       </c>
       <c r="N21" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>441.4508459632592</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.54842149127697</v>
+        <v>23.54842149127694</v>
       </c>
       <c r="K22" t="n">
         <v>162.743079855622</v>
       </c>
       <c r="L22" t="n">
-        <v>261.25483820564</v>
+        <v>261.2548382056399</v>
       </c>
       <c r="M22" t="n">
-        <v>285.350492504684</v>
+        <v>285.3504925046839</v>
       </c>
       <c r="N22" t="n">
-        <v>284.3175291313151</v>
+        <v>284.317529131315</v>
       </c>
       <c r="O22" t="n">
         <v>247.2780028463143</v>
@@ -36297,7 +36297,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.2663512975862</v>
+        <v>50.26635129758617</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>239.4656922197789</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.54842149127698</v>
+        <v>23.54842149127695</v>
       </c>
       <c r="K25" t="n">
         <v>162.743079855622</v>
       </c>
       <c r="L25" t="n">
-        <v>261.25483820564</v>
+        <v>261.2548382056399</v>
       </c>
       <c r="M25" t="n">
-        <v>285.350492504684</v>
+        <v>285.3504925046839</v>
       </c>
       <c r="N25" t="n">
-        <v>284.3175291313151</v>
+        <v>284.317529131315</v>
       </c>
       <c r="O25" t="n">
         <v>247.2780028463143</v>
@@ -36534,7 +36534,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.26635129758621</v>
+        <v>50.26635129758618</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.54842149127697</v>
+        <v>23.54842149127702</v>
       </c>
       <c r="K28" t="n">
-        <v>162.743079855622</v>
+        <v>162.7430798556221</v>
       </c>
       <c r="L28" t="n">
-        <v>261.2548382056399</v>
+        <v>261.2548382056401</v>
       </c>
       <c r="M28" t="n">
         <v>285.350492504684</v>
       </c>
       <c r="N28" t="n">
-        <v>284.317529131315</v>
+        <v>284.3175291313152</v>
       </c>
       <c r="O28" t="n">
-        <v>247.2780028463143</v>
+        <v>247.2780028463144</v>
       </c>
       <c r="P28" t="n">
-        <v>189.4242519375122</v>
+        <v>189.4242519375123</v>
       </c>
       <c r="Q28" t="n">
-        <v>50.2663512975862</v>
+        <v>50.26635129758625</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221114</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502046</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349799</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>239.4656922197798</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415661</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178375</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714616</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209231</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.54842149127695</v>
+        <v>23.54842149127701</v>
       </c>
       <c r="K31" t="n">
-        <v>162.7430798556219</v>
+        <v>162.7430798556221</v>
       </c>
       <c r="L31" t="n">
-        <v>261.2548382056399</v>
+        <v>261.25483820564</v>
       </c>
       <c r="M31" t="n">
-        <v>285.3504925046839</v>
+        <v>285.350492504684</v>
       </c>
       <c r="N31" t="n">
-        <v>284.317529131315</v>
+        <v>284.3175291313151</v>
       </c>
       <c r="O31" t="n">
-        <v>247.2780028463142</v>
+        <v>247.2780028463144</v>
       </c>
       <c r="P31" t="n">
-        <v>189.4242519375122</v>
+        <v>189.4242519375123</v>
       </c>
       <c r="Q31" t="n">
-        <v>50.26635129758617</v>
+        <v>50.26635129758624</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349802</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>239.4656922197794</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415662</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714617</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209231</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095691</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.37802194151</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.129440800466</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415662</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>286.9827555116981</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>239.4656922197794</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415662</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714617</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209231</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37707,13 +37707,13 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>286.9827555116981</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>228.7283062629105</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
